--- a/processed_resumes_with_scores.xlsx
+++ b/processed_resumes_with_scores.xlsx
@@ -838,12 +838,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Java, Spring Boot, PostgreSQL, HTML, CSS, JavaScript, Node.js, Express.js, MySQL, Flask, PyTorch, Pandas, Scikit-learn, Git, CUDA, C++, C, SQL, JSP, Prompt engineering, Competitive programming</t>
+          <t>Java, Spring Boot, PostgreSQL, HTML, CSS, JavaScript, Node.js, MySQL, Flask, PyTorch, Pandas, Scikit-learn, Git, C++, C, SQL,  JSP, CUDA,  Prompt engineering, Competitive programming</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Currently working as an SDE Intern at First Melon Software Systems Pvt Ltd.  Has experience as a Web Developer Intern at Teachnook.  Has multiple projects showcased on GitHub including genVisionary, SentiMatrix, and PharmaForge. Holds certifications in Certified System Administrator (CSA), Programming in Java (Elitescore), and Introduction to Machine Learning (Elitescore). Has a patent under process and a journal publication pending. Ranked in the top 8% of the department and awarded Best Class Representative. Volunteering at Baby Sarah’s home.</t>
+          <t>Currently working as SDE Intern at First Melon Software Systems Pvt Ltd.  Worked as Web Developer Intern at Teachnook.  Has several projects including genVisionary, SentiMatrix, and PharmaForge.  Certified System Administrator (CSA), ServiceNow.  Has patents and publications under process.</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -887,12 +887,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Next.js, AWS, MongoDB, NPM packages, AI services, React,  LLMs, vector databases, Python, FTP, multi-threading, React, MUI, Nodejs, Express, Redis, PostgreSQL, C++, C, JavaScript, Typescript, HTML5, CSS3, SQL, NoSQL, Git, Langchain(JS), NextAuth, Mongoose</t>
+          <t>Next.js, AWS, MongoDB, NPM packages, React, AI, LLMs, Vector databases, Python, FTP, Multi-threading, React, MUI, Nodejs, Express, PostgreSQL, C++, C, JavaScript, Typescript, HTML5, CSS3, SQL, NoSQL, Git, Langchain(JS), NextAuth, Mongoose</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mentored 100+ students in web development; Solved 1000+ DSA questions; Codeforces-Max 1321; Leetcode-Max 1558</t>
+          <t>Solved 1000+ DSA questions across platforms (Codeforces-Max 1321, Leetcode-Max 1558), Mentored 100+ students in web development</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -940,12 +940,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Python, C++, C, Swift, Kotlin, HTML, CSS, Javascript, SwiftUI, Jupyter Notebook, Android Studio, Xcode, Create ML, VS Code, GitHub, Google Cloud, Azure, Power BI, Tableau, MySQL, Firebase, Excel, Figma, Confluence, Jira, Teamwork, Communication, Leadership, Project Management, Decision Making, Agile, Waterfall, Java, PHP, Data Structures Algorithm, OOPS, DBMS, Operating System, Computer Networks (TCP/IP), AI</t>
+          <t>Python, C++, C, Swift, Kotlin, HTML, CSS, Javascript, SwiftUI, Jupyter Notebook, Android Studio, Xcode, Create ML, VS Code, GitHub, Google Cloud, Azure, Power BI, Tableau, MySQL, Firebase, Excel, Figma, Confluence, Jira, Data Structures Algorithm, OOPS, DBMS, Operating System, Computer Networks (TCP/IP), AI, Teamwork, Communication, Leadership, Project Management (Agile, Waterfall), Decision Making</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>National Winner, UST D3CODE Hackathon 2024; Awarded with Star Performer Badge and $1000 Scholarship, Excelerate Feb, 24; SRM Smart Campus Hackathon ’23 Finalist; App Development Team Member, SRM Next Gen AI; Digital Marketing Intern, Mood Indigo, IIT Bombay; Internshala Trainee Captain, Internshala; HackerRank: sr1706; GeeksforGeeks: imsuryasen; LeetCode: imsuryasen; CodeChef: imsuryasen</t>
+          <t>National Winner, mentoring a team for a sustainability project, UST D3CODE Hackathon 2024; Awarded with Star Performer Badge and $1000 Scholarship, Excelerate Feb, 24; SRM Smart Campus Hackathon ’23 Finalist; App Development Team Member, SRM Next Gen AI; Digital Marketing Intern, Mood Indigo, IIT Bombay; Internshala Trainee Captain, Internshala; HackerRank: sr1706; GeeksforGeeks: imsuryasen; LeetCode: imsuryasen; CodeChef: imsuryasen</t>
         </is>
       </c>
       <c r="J10" t="n">

--- a/processed_resumes_with_scores.xlsx
+++ b/processed_resumes_with_scores.xlsx
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jane.smith@example.com, 987-654-3210</t>
+          <t>jane.smith@example.com | 987-654-3210</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>M.Sc.</t>
+          <t>M.Sc. in Artificial Intelligence</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -838,19 +838,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Java, Spring Boot, PostgreSQL, HTML, CSS, JavaScript, Node.js, MySQL, Flask, PyTorch, Pandas, Scikit-learn, Git, C++, C, SQL,  JSP, CUDA,  Prompt engineering, Competitive programming</t>
+          <t>Java, Spring Boot, PostgreSQL, HTML, CSS, JavaScript, Node.js, MySQL, Flask, PyTorch, Pandas, Scikit-learn, Git, C++, C, SQL, JSP, CUDA, Prompt engineering, Competitive programming</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Currently working as SDE Intern at First Melon Software Systems Pvt Ltd.  Worked as Web Developer Intern at Teachnook.  Has several projects including genVisionary, SentiMatrix, and PharmaForge.  Certified System Administrator (CSA), ServiceNow.  Has patents and publications under process.</t>
+          <t>Currently working as an SDE Intern at First Melon Software Systems Pvt Ltd.  Has experience as a Web Developer Intern at Teachnook.  Developed several projects including genVisionary, SentiMatrix, and PharmaForge. Holds certifications in Certified system administrator (CSA), Programming in Java, and Introduction to Machine Learning. Has a patent under process and a journal publication pending. Ranked in the top 8% of the department and awarded Best Class Representative.</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -887,7 +887,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Next.js, AWS, MongoDB, NPM packages, React, AI, LLMs, Vector databases, Python, FTP, Multi-threading, React, MUI, Nodejs, Express, PostgreSQL, C++, C, JavaScript, Typescript, HTML5, CSS3, SQL, NoSQL, Git, Langchain(JS), NextAuth, Mongoose</t>
+          <t>Next.js, AWS, MongoDB, NPM packages, AI services, LLMs, vector databases, React, Chrome extension development, Python, FTP, multi-threading, master-slave architecture, React, MUI, Nodejs, Express, Redis, PostgreSQL, C++, C, JavaScript, Typescript, HTML5, CSS3, SQL, NoSQL, Git,  Langchain(JS), NextAuth, Mongoose</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+91 9893694700, shubhrapathak2003@gmail.com, https://www.linkedin.com/in/ShubhraPathak28, https://github.com/ShubhraPathak28</t>
+          <t>+91 9893694700 shubhrapathak2003@gmail.com, https://www.linkedin.com/in/ShubhraPathak28, https://github.com/ShubhraPathak28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
